--- a/P80/pdu_hv/PCB_ordering_document.xlsx
+++ b/P80/pdu_hv/PCB_ordering_document.xlsx
@@ -361,9 +361,6 @@
     <t>P80-PDU_HV_default.G9</t>
   </si>
   <si>
-    <t>P80-PDU_HV_default.G20</t>
-  </si>
-  <si>
     <t>P80-PDU_HV_default.GBL</t>
   </si>
   <si>
@@ -389,6 +386,9 @@
   </si>
   <si>
     <t>P80-PDU_HV_default.GM7</t>
+  </si>
+  <si>
+    <t>P80-PDU_HV_default.G10</t>
   </si>
 </sst>
 </file>
@@ -5019,7 +5019,7 @@
   <dimension ref="A1:O339"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="G11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5137,7 +5137,7 @@
       <c r="E10" s="86"/>
       <c r="F10" s="87"/>
       <c r="G10" s="49">
-        <v>100386</v>
+        <v>100696</v>
       </c>
       <c r="H10" s="56"/>
     </row>
@@ -5657,7 +5657,7 @@
       <c r="A39" s="20"/>
       <c r="B39" s="4"/>
       <c r="C39" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="104"/>
       <c r="E39" s="105"/>
@@ -5668,7 +5668,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I39" s="45"/>
       <c r="J39" s="45"/>
@@ -5682,18 +5682,18 @@
       <c r="A40" s="20"/>
       <c r="B40" s="1"/>
       <c r="C40" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
       <c r="F40" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="46" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I40" s="45"/>
       <c r="J40" s="45"/>
@@ -5707,12 +5707,12 @@
       <c r="A41" s="20"/>
       <c r="B41" s="4"/>
       <c r="C41" s="103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="104"/>
       <c r="E41" s="105"/>
       <c r="F41" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>10</v>
@@ -5980,7 +5980,7 @@
       <c r="D53" s="104"/>
       <c r="E53" s="105"/>
       <c r="F53" s="12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>10</v>
@@ -5998,7 +5998,7 @@
       <c r="D54" s="82"/>
       <c r="E54" s="82"/>
       <c r="F54" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G54" s="42" t="s">
         <v>20</v>
@@ -6017,7 +6017,7 @@
       <c r="D55" s="83"/>
       <c r="E55" s="83"/>
       <c r="F55" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -6041,7 +6041,7 @@
       <c r="D56" s="107"/>
       <c r="E56" s="108"/>
       <c r="F56" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>11</v>
